--- a/Uploads/Listening_Invalid.xlsx
+++ b/Uploads/Listening_Invalid.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760"/>
@@ -136,18 +136,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Answser 1</t>
-  </si>
-  <si>
-    <t>Answser 2</t>
-  </si>
-  <si>
-    <t>Answser 3</t>
-  </si>
-  <si>
-    <t>Answser 4</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>BB-D-01</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jack’s assistant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> A friend</t>
   </si>
   <si>
@@ -466,20 +451,35 @@
     <t xml:space="preserve"> Jack’s supervisor</t>
   </si>
   <si>
-    <t>AA-D-01.mp4</t>
-  </si>
-  <si>
     <t>BB-D-01.mp4</t>
+  </si>
+  <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Answer 3</t>
+  </si>
+  <si>
+    <t>Answer 4</t>
+  </si>
+  <si>
+    <t>AA-D-01.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jack’s assistant@%%@%@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +735,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -769,6 +770,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,14 +946,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" customWidth="1"/>
@@ -969,10 +971,10 @@
     <col min="14" max="14" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:14" ht="13.5" customHeight="1">
+    <row r="1" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -987,7 +989,7 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="2:14" ht="21.75" customHeight="1">
+    <row r="3" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1002,60 +1004,60 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="2:14" ht="12.75" customHeight="1"/>
-    <row r="5" spans="2:14" s="5" customFormat="1" ht="25.5" customHeight="1">
+    <row r="4" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>98</v>
@@ -1065,25 +1067,25 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="9">
         <v>4</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -1094,25 +1096,25 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J7" s="9">
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="60">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1123,64 +1125,64 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="9">
         <v>3</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J9" s="9">
         <v>2</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1191,25 +1193,25 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="9">
         <v>4</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -1220,64 +1222,64 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J11" s="9">
         <v>3</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J12" s="9">
         <v>3</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -1288,25 +1290,25 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J13" s="9">
         <v>4</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>3</v>
       </c>
@@ -1317,66 +1319,66 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J14" s="9">
         <v>2</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J15" s="9">
         <v>3</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -1387,16 +1389,16 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J16" s="9">
         <v>4</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M16" s="10">
         <v>3560</v>
@@ -1405,7 +1407,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="45">
+    <row r="17" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -1416,66 +1418,66 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J17" s="9">
         <v>1</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J18" s="9">
         <v>1</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="60">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -1486,25 +1488,25 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J19" s="9">
         <v>3</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>5</v>
       </c>
@@ -1515,25 +1517,25 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J20" s="9">
         <v>4</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1567,12 +1569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1580,12 +1582,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
